--- a/All Major/All Major_spring.xlsx
+++ b/All Major/All Major_spring.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>Major Beginning of Semester</t>
   </si>
@@ -49,7 +49,7 @@
     <t>CS-BS</t>
   </si>
   <si>
-    <t>Others</t>
+    <t>NURS-BSN</t>
   </si>
   <si>
     <t>PSYC-BA</t>
@@ -142,6 +142,9 @@
     <t>MGMT-BA</t>
   </si>
   <si>
+    <t>SPA-ND</t>
+  </si>
+  <si>
     <t>HEDP-BS</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t>SOC-BA</t>
   </si>
   <si>
+    <t>SPAN-BA</t>
+  </si>
+  <si>
     <t>SO</t>
   </si>
   <si>
@@ -176,6 +182,9 @@
   </si>
   <si>
     <t>SR</t>
+  </si>
+  <si>
+    <t>GENS-AGS</t>
   </si>
 </sst>
 </file>
@@ -3354,7 +3363,7 @@
         <v>270</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
@@ -3823,7 +3832,7 @@
         <v>1.517</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F165" t="n">
         <v>1.585</v>
@@ -3843,7 +3852,7 @@
         <v>3.4</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F166" t="n">
         <v>3.364</v>
@@ -3874,7 +3883,7 @@
         <v>361</v>
       </c>
       <c r="B168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -3894,7 +3903,7 @@
         <v>362</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -3943,7 +3952,7 @@
         <v>2.733</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F171" t="n">
         <v>2.429</v>
@@ -3963,7 +3972,7 @@
         <v>2.583</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F172" t="n">
         <v>2.462</v>
@@ -3983,7 +3992,7 @@
         <v>2.941</v>
       </c>
       <c r="E173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F173" t="n">
         <v>2.75</v>
@@ -4003,7 +4012,7 @@
         <v>2.529</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F174" t="n">
         <v>2.587</v>
@@ -4023,7 +4032,7 @@
         <v>2.267</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F175" t="n">
         <v>2.233</v>
@@ -4043,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F176" t="n">
         <v>2.138</v>
@@ -4063,7 +4072,7 @@
         <v>2.5</v>
       </c>
       <c r="E177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F177" t="n">
         <v>2.056</v>
@@ -4083,7 +4092,7 @@
         <v>3.143</v>
       </c>
       <c r="E178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F178" t="n">
         <v>1.786</v>
@@ -4103,7 +4112,7 @@
         <v>3.75</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F179" t="n">
         <v>3.4</v>
@@ -4154,7 +4163,7 @@
         <v>395</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -4674,7 +4683,7 @@
         <v>449</v>
       </c>
       <c r="B208" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -4803,7 +4812,7 @@
         <v>2.962</v>
       </c>
       <c r="E214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F214" t="n">
         <v>2.439</v>
@@ -4823,7 +4832,7 @@
         <v>3.455</v>
       </c>
       <c r="E215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F215" t="n">
         <v>3.361</v>
@@ -5294,7 +5303,7 @@
         <v>500</v>
       </c>
       <c r="B239" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
@@ -6463,7 +6472,7 @@
         <v>2.909</v>
       </c>
       <c r="E297" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F297" t="n">
         <v>2.174</v>
@@ -6483,7 +6492,7 @@
         <v>2.375</v>
       </c>
       <c r="E298" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F298" t="n">
         <v>2.643</v>
@@ -6503,7 +6512,7 @@
         <v>3.471</v>
       </c>
       <c r="E299" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F299" t="n">
         <v>3.455</v>
@@ -6523,7 +6532,7 @@
         <v>2.714</v>
       </c>
       <c r="E300" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F300" t="n">
         <v>2.9</v>
@@ -6543,7 +6552,7 @@
         <v>3.375</v>
       </c>
       <c r="E301" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F301" t="n">
         <v>3.222</v>
@@ -6563,7 +6572,7 @@
         <v>1.636</v>
       </c>
       <c r="E302" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F302" t="n">
         <v>2</v>
@@ -6583,7 +6592,7 @@
         <v>2.8</v>
       </c>
       <c r="E303" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F303" t="n">
         <v>2.52</v>
@@ -6703,7 +6712,7 @@
         <v>2.286</v>
       </c>
       <c r="E309" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F309" t="n">
         <v>2.222</v>
@@ -6723,7 +6732,7 @@
         <v>2.5</v>
       </c>
       <c r="E310" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F310" t="n">
         <v>1.217</v>
@@ -7103,7 +7112,7 @@
         <v>2.75</v>
       </c>
       <c r="E329" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F329" t="n">
         <v>2.25</v>
@@ -7123,7 +7132,7 @@
         <v>1.909</v>
       </c>
       <c r="E330" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F330" t="n">
         <v>1.111</v>
@@ -7143,7 +7152,7 @@
         <v>1.636</v>
       </c>
       <c r="E331" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F331" t="n">
         <v>1.636</v>
@@ -7163,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F332" t="n">
         <v>2.636</v>
@@ -7183,7 +7192,7 @@
         <v>3.182</v>
       </c>
       <c r="E333" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F333" t="n">
         <v>3.1</v>
@@ -7203,7 +7212,7 @@
         <v>3.571</v>
       </c>
       <c r="E334" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F334" t="n">
         <v>3.8</v>
@@ -7494,7 +7503,7 @@
         <v>696</v>
       </c>
       <c r="B349" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C349" t="s">
         <v>6</v>
@@ -7614,7 +7623,7 @@
         <v>705</v>
       </c>
       <c r="B355" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C355" t="s">
         <v>6</v>
@@ -7654,7 +7663,7 @@
         <v>707</v>
       </c>
       <c r="B357" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C357" t="s">
         <v>6</v>
@@ -7913,7 +7922,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
         <v>3.927</v>
@@ -7933,7 +7942,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
         <v>3.457</v>
@@ -7953,7 +7962,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
         <v>2.623</v>
@@ -7973,7 +7982,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
         <v>2.245</v>
@@ -7993,7 +8002,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
         <v>1.982</v>
@@ -8013,7 +8022,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
         <v>3.2</v>
@@ -8033,7 +8042,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
         <v>3.519</v>
@@ -8053,7 +8062,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" t="n">
         <v>2.837</v>
@@ -8073,7 +8082,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="n">
         <v>1.507</v>
@@ -8093,7 +8102,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" t="n">
         <v>3.467</v>
@@ -8110,10 +8119,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" t="n">
         <v>2.538</v>
@@ -8133,7 +8142,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" t="n">
         <v>2.452</v>
@@ -8153,7 +8162,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" t="n">
         <v>2.782</v>
@@ -8173,7 +8182,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" t="n">
         <v>2.571</v>
@@ -8193,7 +8202,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
         <v>2.2</v>
@@ -8213,7 +8222,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" t="n">
         <v>3.75</v>
@@ -8233,7 +8242,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" t="n">
         <v>2.769</v>
@@ -8253,7 +8262,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
@@ -8273,7 +8282,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" t="n">
         <v>3.315</v>
@@ -8293,7 +8302,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" t="n">
         <v>2.267</v>
@@ -8313,7 +8322,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" t="n">
         <v>3.364</v>
@@ -8333,7 +8342,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" t="n">
         <v>3.357</v>
@@ -8353,7 +8362,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" t="n">
         <v>3.714</v>
@@ -8373,7 +8382,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25" t="n">
         <v>2.969</v>
@@ -8393,7 +8402,7 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D26" t="n">
         <v>1.821</v>
@@ -8413,7 +8422,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" t="n">
         <v>2.12</v>
@@ -8433,7 +8442,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D28" t="n">
         <v>3.925</v>
@@ -8453,7 +8462,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D29" t="n">
         <v>3.3</v>
@@ -8473,7 +8482,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D30" t="n">
         <v>2.619</v>
@@ -8493,7 +8502,7 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D31" t="n">
         <v>2.156</v>
@@ -8513,7 +8522,7 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" t="n">
         <v>2.857</v>
@@ -8533,7 +8542,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
@@ -8553,7 +8562,7 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D34" t="n">
         <v>2.39</v>
@@ -8573,7 +8582,7 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35" t="n">
         <v>2.73</v>
@@ -8593,7 +8602,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D36" t="n">
         <v>3.917</v>
@@ -8613,7 +8622,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D37" t="n">
         <v>2.449</v>
@@ -8633,7 +8642,7 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D38" t="n">
         <v>3.531</v>
@@ -8653,7 +8662,7 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D39" t="n">
         <v>3.7</v>
@@ -8673,7 +8682,7 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D40" t="n">
         <v>3.2</v>
@@ -8693,7 +8702,7 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D41" t="n">
         <v>3</v>
@@ -8713,7 +8722,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D42" t="n">
         <v>3.765</v>
@@ -8733,7 +8742,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D43" t="n">
         <v>3.649</v>
@@ -8753,7 +8762,7 @@
         <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D44" t="n">
         <v>1.773</v>
@@ -8773,7 +8782,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D45" t="n">
         <v>2.824</v>
@@ -8793,7 +8802,7 @@
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D46" t="n">
         <v>2.917</v>
@@ -8813,7 +8822,7 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D47" t="n">
         <v>2.545</v>
@@ -8833,7 +8842,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D48" t="n">
         <v>2.975</v>
@@ -8853,7 +8862,7 @@
         <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D49" t="n">
         <v>1.725</v>
@@ -8873,7 +8882,7 @@
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D50" t="n">
         <v>2.333</v>
@@ -8893,7 +8902,7 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D51" t="n">
         <v>2.867</v>
@@ -8913,7 +8922,7 @@
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D52" t="n">
         <v>3.449</v>
@@ -8933,7 +8942,7 @@
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D53" t="n">
         <v>3.022</v>
@@ -8953,7 +8962,7 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D54" t="n">
         <v>2.538</v>
@@ -8973,7 +8982,7 @@
         <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D55" t="n">
         <v>2.7</v>
@@ -8993,7 +9002,7 @@
         <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D56" t="n">
         <v>3.391</v>
@@ -9013,7 +9022,7 @@
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D57" t="n">
         <v>2.679</v>
@@ -9033,7 +9042,7 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D58" t="n">
         <v>1.872</v>
@@ -9053,7 +9062,7 @@
         <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D59" t="n">
         <v>2.146</v>
@@ -9073,7 +9082,7 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D60" t="n">
         <v>2.333</v>
@@ -9093,7 +9102,7 @@
         <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D61" t="n">
         <v>1.933</v>
@@ -9113,7 +9122,7 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D62" t="n">
         <v>2.119</v>
@@ -9133,7 +9142,7 @@
         <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D63" t="n">
         <v>1.958</v>
@@ -9153,7 +9162,7 @@
         <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D64" t="n">
         <v>1.706</v>
@@ -9173,7 +9182,7 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D65" t="n">
         <v>1.979</v>
@@ -9193,7 +9202,7 @@
         <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D66" t="n">
         <v>2.333</v>
@@ -9213,7 +9222,7 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D67" t="n">
         <v>2.902</v>
@@ -9233,7 +9242,7 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D68" t="n">
         <v>2.267</v>
@@ -9250,10 +9259,10 @@
         <v>253</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D69" t="n">
         <v>3.775</v>
@@ -9273,7 +9282,7 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D70" t="n">
         <v>2.641</v>
@@ -9293,7 +9302,7 @@
         <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D71" t="n">
         <v>2.615</v>
@@ -9313,7 +9322,7 @@
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D72" t="n">
         <v>3.75</v>
@@ -9333,7 +9342,7 @@
         <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D73" t="n">
         <v>2.591</v>
@@ -9353,7 +9362,7 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D74" t="n">
         <v>3.48</v>
@@ -9370,10 +9379,10 @@
         <v>269</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D75" t="n">
         <v>3.6</v>
@@ -9393,7 +9402,7 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D76" t="n">
         <v>3.211</v>
@@ -9413,7 +9422,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D77" t="n">
         <v>1.636</v>
@@ -9433,7 +9442,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D78" t="n">
         <v>2.208</v>
@@ -9453,7 +9462,7 @@
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D79" t="n">
         <v>1.455</v>
@@ -9473,7 +9482,7 @@
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D80" t="n">
         <v>2.177</v>
@@ -9493,7 +9502,7 @@
         <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D81" t="n">
         <v>2.034</v>
@@ -9513,7 +9522,7 @@
         <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D82" t="n">
         <v>1.367</v>
@@ -9533,7 +9542,7 @@
         <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D83" t="n">
         <v>2.321</v>
@@ -9553,7 +9562,7 @@
         <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D84" t="n">
         <v>2.661</v>
@@ -9573,7 +9582,7 @@
         <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D85" t="n">
         <v>2.6</v>
@@ -9593,7 +9602,7 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D86" t="n">
         <v>2.633</v>
@@ -9610,10 +9619,10 @@
         <v>317</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D87" t="n">
         <v>1.904</v>
@@ -9630,10 +9639,10 @@
         <v>318</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D88" t="n">
         <v>3.186</v>
@@ -9653,7 +9662,7 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D89" t="n">
         <v>1.891</v>
@@ -9673,7 +9682,7 @@
         <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D90" t="n">
         <v>2.424</v>
@@ -9693,7 +9702,7 @@
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D91" t="n">
         <v>2.541</v>
@@ -9713,7 +9722,7 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D92" t="n">
         <v>2.231</v>
@@ -9733,13 +9742,13 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D93" t="n">
         <v>2.571</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F93" t="n">
         <v>2.125</v>
@@ -9753,7 +9762,7 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D94" t="n">
         <v>2.821</v>
@@ -9773,7 +9782,7 @@
         <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D95" t="n">
         <v>2.146</v>
@@ -9793,13 +9802,13 @@
         <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D96" t="n">
         <v>2.435</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F96" t="n">
         <v>2.525</v>
@@ -9813,13 +9822,13 @@
         <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D97" t="n">
         <v>2.237</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="n">
         <v>2.064</v>
@@ -9833,13 +9842,13 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D98" t="n">
         <v>2.405</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="n">
         <v>2.391</v>
@@ -9853,13 +9862,13 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D99" t="n">
         <v>2.118</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="n">
         <v>2.255</v>
@@ -9873,13 +9882,13 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D100" t="n">
         <v>3.093</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="n">
         <v>3.22</v>
@@ -9893,13 +9902,13 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D101" t="n">
         <v>2.92</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="n">
         <v>2.79</v>
@@ -9913,13 +9922,13 @@
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D102" t="n">
         <v>2.795</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="n">
         <v>2.654</v>
@@ -9933,13 +9942,13 @@
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D103" t="n">
         <v>3.736</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="n">
         <v>3.639</v>
@@ -9953,13 +9962,13 @@
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D104" t="n">
         <v>3.239</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="n">
         <v>3.288</v>
@@ -9970,10 +9979,10 @@
         <v>393</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D105" t="n">
         <v>2.177</v>
@@ -9993,7 +10002,7 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D106" t="n">
         <v>2.485</v>
@@ -10013,7 +10022,7 @@
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D107" t="n">
         <v>2.105</v>
@@ -10033,7 +10042,7 @@
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D108" t="n">
         <v>1.772</v>
@@ -10053,7 +10062,7 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D109" t="n">
         <v>1.983</v>
@@ -10073,7 +10082,7 @@
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D110" t="n">
         <v>3.419</v>
@@ -10093,7 +10102,7 @@
         <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D111" t="n">
         <v>1.944</v>
@@ -10113,7 +10122,7 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D112" t="n">
         <v>2.146</v>
@@ -10133,7 +10142,7 @@
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D113" t="n">
         <v>3.37</v>
@@ -10153,7 +10162,7 @@
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D114" t="n">
         <v>2.789</v>
@@ -10173,7 +10182,7 @@
         <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D115" t="n">
         <v>1.909</v>
@@ -10190,10 +10199,10 @@
         <v>439</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D116" t="n">
         <v>2.675</v>
@@ -10213,7 +10222,7 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D117" t="n">
         <v>3.095</v>
@@ -10230,10 +10239,10 @@
         <v>447</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D118" t="n">
         <v>3.12</v>
@@ -10250,10 +10259,10 @@
         <v>448</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D119" t="n">
         <v>3.043</v>
@@ -10273,7 +10282,7 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D120" t="n">
         <v>1.641</v>
@@ -10293,7 +10302,7 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D121" t="n">
         <v>2.468</v>
@@ -10313,7 +10322,7 @@
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D122" t="n">
         <v>2.061</v>
@@ -10333,7 +10342,7 @@
         <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -10353,7 +10362,7 @@
         <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D124" t="n">
         <v>3.068</v>
@@ -10373,7 +10382,7 @@
         <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D125" t="n">
         <v>2.826</v>
@@ -10393,7 +10402,7 @@
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D126" t="n">
         <v>3.1</v>
@@ -10413,7 +10422,7 @@
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D127" t="n">
         <v>3.851</v>
@@ -10433,7 +10442,7 @@
         <v>25</v>
       </c>
       <c r="C128" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D128" t="n">
         <v>3.548</v>
@@ -10453,7 +10462,7 @@
         <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D129" t="n">
         <v>2.733</v>
@@ -10473,7 +10482,7 @@
         <v>17</v>
       </c>
       <c r="C130" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D130" t="n">
         <v>2.174</v>
@@ -10493,7 +10502,7 @@
         <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D131" t="n">
         <v>2.05</v>
@@ -10513,7 +10522,7 @@
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D132" t="n">
         <v>2.114</v>
@@ -10533,7 +10542,7 @@
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D133" t="n">
         <v>3.556</v>
@@ -10553,7 +10562,7 @@
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D134" t="n">
         <v>2</v>
@@ -10573,7 +10582,7 @@
         <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D135" t="n">
         <v>2.025</v>
@@ -10593,7 +10602,7 @@
         <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D136" t="n">
         <v>3.143</v>
@@ -10610,10 +10619,10 @@
         <v>538</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C137" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D137" t="n">
         <v>3.881</v>
@@ -10633,7 +10642,7 @@
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D138" t="n">
         <v>1.902</v>
@@ -10653,7 +10662,7 @@
         <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D139" t="n">
         <v>3.625</v>
@@ -10673,7 +10682,7 @@
         <v>34</v>
       </c>
       <c r="C140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D140" t="n">
         <v>2.088</v>
@@ -10693,7 +10702,7 @@
         <v>34</v>
       </c>
       <c r="C141" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D141" t="n">
         <v>2.079</v>
@@ -10713,7 +10722,7 @@
         <v>34</v>
       </c>
       <c r="C142" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D142" t="n">
         <v>1.976</v>
@@ -10733,7 +10742,7 @@
         <v>34</v>
       </c>
       <c r="C143" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D143" t="n">
         <v>3.571</v>
@@ -10750,10 +10759,10 @@
         <v>564</v>
       </c>
       <c r="B144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C144" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D144" t="n">
         <v>2.333</v>
@@ -10773,7 +10782,7 @@
         <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D145" t="n">
         <v>3.61</v>
@@ -10793,13 +10802,13 @@
         <v>27</v>
       </c>
       <c r="C146" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D146" t="n">
         <v>3.442</v>
       </c>
       <c r="E146" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F146" t="n">
         <v>3.433</v>
@@ -10813,7 +10822,7 @@
         <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D147" t="n">
         <v>3.217</v>
@@ -10833,7 +10842,7 @@
         <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D148" t="n">
         <v>3.231</v>
@@ -10853,7 +10862,7 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D149" t="n">
         <v>2.741</v>
@@ -10873,7 +10882,7 @@
         <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D150" t="n">
         <v>2.786</v>
@@ -10893,7 +10902,7 @@
         <v>25</v>
       </c>
       <c r="C151" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D151" t="n">
         <v>3.618</v>
@@ -10913,7 +10922,7 @@
         <v>33</v>
       </c>
       <c r="C152" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D152" t="n">
         <v>3.25</v>
@@ -10933,7 +10942,7 @@
         <v>40</v>
       </c>
       <c r="C153" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D153" t="n">
         <v>1.851</v>
@@ -10953,7 +10962,7 @@
         <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D154" t="n">
         <v>2.462</v>
@@ -10973,7 +10982,7 @@
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D155" t="n">
         <v>2.685</v>
@@ -10993,7 +11002,7 @@
         <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D156" t="n">
         <v>3.5</v>
@@ -11013,7 +11022,7 @@
         <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D157" t="n">
         <v>2.609</v>
@@ -11033,7 +11042,7 @@
         <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D158" t="n">
         <v>3.121</v>
@@ -11053,13 +11062,13 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D159" t="n">
         <v>2.045</v>
       </c>
       <c r="E159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F159" t="n">
         <v>2.085</v>
@@ -11073,13 +11082,13 @@
         <v>40</v>
       </c>
       <c r="C160" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D160" t="n">
         <v>3.032</v>
       </c>
       <c r="E160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F160" t="n">
         <v>3.022</v>
@@ -11093,7 +11102,7 @@
         <v>37</v>
       </c>
       <c r="C161" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D161" t="n">
         <v>2.833</v>
@@ -11113,7 +11122,7 @@
         <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D162" t="n">
         <v>3.558</v>
@@ -11133,13 +11142,13 @@
         <v>20</v>
       </c>
       <c r="C163" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D163" t="n">
         <v>3.167</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F163" t="n">
         <v>3</v>
@@ -11153,13 +11162,13 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D164" t="n">
         <v>2.722</v>
       </c>
       <c r="E164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F164" t="n">
         <v>2.696</v>
@@ -11173,7 +11182,7 @@
         <v>19</v>
       </c>
       <c r="C165" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D165" t="n">
         <v>3.412</v>
@@ -11193,7 +11202,7 @@
         <v>19</v>
       </c>
       <c r="C166" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D166" t="n">
         <v>3.324</v>
@@ -11213,7 +11222,7 @@
         <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D167" t="n">
         <v>2.135</v>
@@ -11233,7 +11242,7 @@
         <v>31</v>
       </c>
       <c r="C168" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D168" t="n">
         <v>2.645</v>
@@ -11253,7 +11262,7 @@
         <v>34</v>
       </c>
       <c r="C169" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D169" t="n">
         <v>2.343</v>
@@ -11273,7 +11282,7 @@
         <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D170" t="n">
         <v>2.417</v>
@@ -11293,7 +11302,7 @@
         <v>21</v>
       </c>
       <c r="C171" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D171" t="n">
         <v>2.211</v>
@@ -11313,7 +11322,7 @@
         <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D172" t="n">
         <v>1.833</v>
@@ -11333,7 +11342,7 @@
         <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D173" t="n">
         <v>2.447</v>
@@ -11353,13 +11362,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D174" t="n">
         <v>1.867</v>
       </c>
       <c r="E174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F174" t="n">
         <v>1.85</v>
@@ -11370,16 +11379,16 @@
         <v>669</v>
       </c>
       <c r="B175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C175" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D175" t="n">
         <v>2.071</v>
       </c>
       <c r="E175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F175" t="n">
         <v>2.118</v>
@@ -11393,13 +11402,13 @@
         <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D176" t="n">
         <v>3.569</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F176" t="n">
         <v>3.658</v>
@@ -11413,7 +11422,7 @@
         <v>24</v>
       </c>
       <c r="C177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D177" t="n">
         <v>2.897</v>
@@ -11433,7 +11442,7 @@
         <v>24</v>
       </c>
       <c r="C178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D178" t="n">
         <v>3.9</v>
@@ -11450,10 +11459,10 @@
         <v>680</v>
       </c>
       <c r="B179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C179" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D179" t="n">
         <v>2.141</v>
@@ -11473,7 +11482,7 @@
         <v>26</v>
       </c>
       <c r="C180" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D180" t="n">
         <v>3.38</v>
@@ -11490,10 +11499,10 @@
         <v>694</v>
       </c>
       <c r="B181" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C181" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D181" t="n">
         <v>2.184</v>
@@ -11513,7 +11522,7 @@
         <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D182" t="n">
         <v>2.118</v>
@@ -11533,7 +11542,7 @@
         <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D183" t="n">
         <v>3.333</v>
@@ -11553,7 +11562,7 @@
         <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D184" t="n">
         <v>2.033</v>
@@ -11573,7 +11582,7 @@
         <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D185" t="n">
         <v>2.439</v>
@@ -11629,7 +11638,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
         <v>3.773</v>
@@ -11649,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
         <v>2.67</v>
@@ -11669,7 +11678,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
         <v>3.203</v>
@@ -11689,7 +11698,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
         <v>2.619</v>
@@ -11709,7 +11718,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
         <v>3.315</v>
@@ -11729,7 +11738,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
         <v>3.541</v>
@@ -11749,7 +11758,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
         <v>2.19</v>
@@ -11769,7 +11778,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
         <v>3.158</v>
@@ -11789,7 +11798,7 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" t="n">
         <v>3.461</v>
@@ -11809,7 +11818,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
         <v>3.292</v>
@@ -11829,7 +11838,7 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
         <v>2.531</v>
@@ -11849,7 +11858,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" t="n">
         <v>3.464</v>
@@ -11869,7 +11878,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" t="n">
         <v>1.847</v>
@@ -11889,7 +11898,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="n">
         <v>2.378</v>
@@ -11909,7 +11918,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" t="n">
         <v>2.5</v>
@@ -11929,7 +11938,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" t="n">
         <v>2.479</v>
@@ -11949,7 +11958,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" t="n">
         <v>2.097</v>
@@ -11969,7 +11978,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" t="n">
         <v>2.064</v>
@@ -11989,7 +11998,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" t="n">
         <v>2.383</v>
@@ -12009,7 +12018,7 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" t="n">
         <v>3.65</v>
@@ -12029,7 +12038,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" t="n">
         <v>3.5</v>
@@ -12049,7 +12058,7 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" t="n">
         <v>1.988</v>
@@ -12069,7 +12078,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" t="n">
         <v>3.183</v>
@@ -12089,7 +12098,7 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" t="n">
         <v>1.838</v>
@@ -12109,7 +12118,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" t="n">
         <v>3.529</v>
@@ -12129,7 +12138,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" t="n">
         <v>2.06</v>
@@ -12149,7 +12158,7 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" t="n">
         <v>2.304</v>
@@ -12169,7 +12178,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D29" t="n">
         <v>2.81</v>
@@ -12189,7 +12198,7 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D30" t="n">
         <v>2.5</v>
@@ -12209,7 +12218,7 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D31" t="n">
         <v>2.613</v>
@@ -12229,7 +12238,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D32" t="n">
         <v>3.253</v>
@@ -12246,10 +12255,10 @@
         <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D33" t="n">
         <v>3.684</v>
@@ -12269,7 +12278,7 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D34" t="n">
         <v>3.55</v>
@@ -12289,7 +12298,7 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D35" t="n">
         <v>3.129</v>
@@ -12309,7 +12318,7 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D36" t="n">
         <v>3.461</v>
@@ -12329,7 +12338,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37" t="n">
         <v>1.878</v>
@@ -12349,7 +12358,7 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D38" t="n">
         <v>2.045</v>
@@ -12369,7 +12378,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D39" t="n">
         <v>2.672</v>
@@ -12389,7 +12398,7 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D40" t="n">
         <v>3.155</v>
@@ -12409,7 +12418,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D41" t="n">
         <v>2.828</v>
@@ -12429,7 +12438,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42" t="n">
         <v>3.516</v>
@@ -12449,7 +12458,7 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43" t="n">
         <v>2.843</v>
@@ -12469,7 +12478,7 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D44" t="n">
         <v>3.1</v>
@@ -12486,10 +12495,10 @@
         <v>313</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D45" t="n">
         <v>2.545</v>
@@ -12506,10 +12515,10 @@
         <v>319</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D46" t="n">
         <v>3.805</v>
@@ -12529,7 +12538,7 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D47" t="n">
         <v>2.081</v>
@@ -12549,7 +12558,7 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D48" t="n">
         <v>3.671</v>
@@ -12569,7 +12578,7 @@
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D49" t="n">
         <v>2.871</v>
@@ -12589,7 +12598,7 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D50" t="n">
         <v>2.36</v>
@@ -12609,7 +12618,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D51" t="n">
         <v>3.179</v>
@@ -12629,7 +12638,7 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D52" t="n">
         <v>2.957</v>
@@ -12649,7 +12658,7 @@
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D53" t="n">
         <v>2.972</v>
@@ -12669,13 +12678,13 @@
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D54" t="n">
         <v>3.464</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F54" t="n">
         <v>3.513</v>
@@ -12689,7 +12698,7 @@
         <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D55" t="n">
         <v>1.987</v>
@@ -12709,7 +12718,7 @@
         <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D56" t="n">
         <v>3.432</v>
@@ -12729,7 +12738,7 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D57" t="n">
         <v>2.35</v>
@@ -12746,10 +12755,10 @@
         <v>363</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D58" t="n">
         <v>3.574</v>
@@ -12769,7 +12778,7 @@
         <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D59" t="n">
         <v>1.926</v>
@@ -12789,13 +12798,13 @@
         <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D60" t="n">
         <v>2.333</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="n">
         <v>2.387</v>
@@ -12809,13 +12818,13 @@
         <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D61" t="n">
         <v>2.03</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="n">
         <v>1.789</v>
@@ -12829,13 +12838,13 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D62" t="n">
         <v>3.686</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="n">
         <v>3.671</v>
@@ -12849,7 +12858,7 @@
         <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D63" t="n">
         <v>2.263</v>
@@ -12866,10 +12875,10 @@
         <v>394</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D64" t="n">
         <v>3.277</v>
@@ -12889,7 +12898,7 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D65" t="n">
         <v>1.613</v>
@@ -12909,7 +12918,7 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D66" t="n">
         <v>2.639</v>
@@ -12929,7 +12938,7 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D67" t="n">
         <v>2.733</v>
@@ -12949,7 +12958,7 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D68" t="n">
         <v>3.627</v>
@@ -12969,7 +12978,7 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D69" t="n">
         <v>3.169</v>
@@ -12989,7 +12998,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D70" t="n">
         <v>2.388</v>
@@ -13009,7 +13018,7 @@
         <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D71" t="n">
         <v>3.613</v>
@@ -13026,10 +13035,10 @@
         <v>440</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D72" t="n">
         <v>3.26</v>
@@ -13049,7 +13058,7 @@
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D73" t="n">
         <v>3.699</v>
@@ -13069,7 +13078,7 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D74" t="n">
         <v>2.941</v>
@@ -13089,7 +13098,7 @@
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D75" t="n">
         <v>2.932</v>
@@ -13109,7 +13118,7 @@
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D76" t="n">
         <v>4</v>
@@ -13129,7 +13138,7 @@
         <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D77" t="n">
         <v>2.583</v>
@@ -13149,7 +13158,7 @@
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D78" t="n">
         <v>3.224</v>
@@ -13169,7 +13178,7 @@
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D79" t="n">
         <v>3.458</v>
@@ -13189,7 +13198,7 @@
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D80" t="n">
         <v>2.913</v>
@@ -13209,7 +13218,7 @@
         <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D81" t="n">
         <v>2.181</v>
@@ -13229,7 +13238,7 @@
         <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D82" t="n">
         <v>3</v>
@@ -13249,7 +13258,7 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D83" t="n">
         <v>3.36</v>
@@ -13269,7 +13278,7 @@
         <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D84" t="n">
         <v>3.172</v>
@@ -13289,7 +13298,7 @@
         <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D85" t="n">
         <v>2.493</v>
@@ -13309,7 +13318,7 @@
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D86" t="n">
         <v>2.213</v>
@@ -13329,7 +13338,7 @@
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D87" t="n">
         <v>2.429</v>
@@ -13346,10 +13355,10 @@
         <v>565</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D88" t="n">
         <v>3.494</v>
@@ -13369,7 +13378,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D89" t="n">
         <v>2.925</v>
@@ -13389,7 +13398,7 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D90" t="n">
         <v>2.923</v>
@@ -13409,7 +13418,7 @@
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D91" t="n">
         <v>3.523</v>
@@ -13429,7 +13438,7 @@
         <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D92" t="n">
         <v>3.082</v>
@@ -13449,13 +13458,13 @@
         <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D93" t="n">
         <v>2.318</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="n">
         <v>2.287</v>
@@ -13469,13 +13478,13 @@
         <v>29</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D94" t="n">
         <v>2.12</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="n">
         <v>2.143</v>
@@ -13489,13 +13498,13 @@
         <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D95" t="n">
         <v>2.489</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="n">
         <v>2.59</v>
@@ -13509,13 +13518,13 @@
         <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D96" t="n">
         <v>3.515</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="n">
         <v>3.461</v>
@@ -13529,13 +13538,13 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D97" t="n">
         <v>2.436</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="n">
         <v>2.457</v>
@@ -13549,13 +13558,13 @@
         <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D98" t="n">
         <v>3.623</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="n">
         <v>3.685</v>
@@ -13569,13 +13578,13 @@
         <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D99" t="n">
         <v>3.243</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="n">
         <v>3.209</v>
@@ -13589,13 +13598,13 @@
         <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D100" t="n">
         <v>3.2</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F100" t="n">
         <v>3.119</v>
@@ -13609,13 +13618,13 @@
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D101" t="n">
         <v>1.813</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F101" t="n">
         <v>1.74</v>
@@ -13629,7 +13638,7 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D102" t="n">
         <v>2.194</v>
@@ -13649,7 +13658,7 @@
         <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D103" t="n">
         <v>2.283</v>
@@ -13669,7 +13678,7 @@
         <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D104" t="n">
         <v>3.06</v>
@@ -13689,7 +13698,7 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D105" t="n">
         <v>2.676</v>
@@ -13709,7 +13718,7 @@
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D106" t="n">
         <v>3.948</v>
@@ -13765,7 +13774,7 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
         <v>1.755</v>
@@ -13785,7 +13794,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
         <v>2.158</v>
@@ -13805,7 +13814,7 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
         <v>2.796</v>
@@ -13825,7 +13834,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
         <v>3.511</v>
@@ -13845,7 +13854,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
         <v>2.758</v>
@@ -13865,7 +13874,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
         <v>2.27</v>
@@ -13885,7 +13894,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n">
         <v>3.154</v>
@@ -13905,7 +13914,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
         <v>3.071</v>
@@ -13925,7 +13934,7 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" t="n">
         <v>2.932</v>
@@ -13945,7 +13954,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="n">
         <v>3.2</v>
@@ -13965,7 +13974,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" t="n">
         <v>3.254</v>
@@ -13985,7 +13994,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" t="n">
         <v>3.267</v>
@@ -14002,10 +14011,10 @@
         <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" t="n">
         <v>3.76</v>
@@ -14025,7 +14034,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
         <v>1.738</v>
@@ -14045,7 +14054,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" t="n">
         <v>2.083</v>
@@ -14065,7 +14074,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" t="n">
         <v>2.569</v>
@@ -14085,7 +14094,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" t="n">
         <v>3.696</v>
@@ -14105,7 +14114,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" t="n">
         <v>2.77</v>
@@ -14125,7 +14134,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" t="n">
         <v>2.027</v>
@@ -14145,7 +14154,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="n">
         <v>3.487</v>
@@ -14165,7 +14174,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" t="n">
         <v>3.018</v>
@@ -14185,13 +14194,13 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" t="n">
         <v>2.386</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F23" t="n">
         <v>2.463</v>
@@ -14205,13 +14214,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" t="n">
         <v>2.656</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F24" t="n">
         <v>2.762</v>
@@ -14225,7 +14234,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" t="n">
         <v>2.423</v>
@@ -14245,7 +14254,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
         <v>2.024</v>
@@ -14265,7 +14274,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
         <v>2.196</v>
@@ -14285,7 +14294,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D28" t="n">
         <v>3.888</v>
@@ -14305,7 +14314,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D29" t="n">
         <v>2.418</v>
@@ -14325,7 +14334,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D30" t="n">
         <v>2.056</v>
@@ -14345,7 +14354,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" t="n">
         <v>2.426</v>
@@ -14365,7 +14374,7 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D32" t="n">
         <v>2.742</v>
@@ -14385,7 +14394,7 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
         <v>2.577</v>
@@ -14405,7 +14414,7 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D34" t="n">
         <v>2.991</v>
@@ -14422,10 +14431,10 @@
         <v>314</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D35" t="n">
         <v>2.785</v>
@@ -14442,10 +14451,10 @@
         <v>315</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D36" t="n">
         <v>3.158</v>
@@ -14462,10 +14471,10 @@
         <v>316</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D37" t="n">
         <v>2.745</v>
@@ -14485,7 +14494,7 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38" t="n">
         <v>2.604</v>
@@ -14505,7 +14514,7 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D39" t="n">
         <v>1.797</v>
@@ -14525,7 +14534,7 @@
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D40" t="n">
         <v>3.484</v>
@@ -14545,7 +14554,7 @@
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D41" t="n">
         <v>3.706</v>
@@ -14562,10 +14571,10 @@
         <v>339</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D42" t="n">
         <v>3.403</v>
@@ -14585,7 +14594,7 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D43" t="n">
         <v>2.711</v>
@@ -14605,7 +14614,7 @@
         <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D44" t="n">
         <v>3.163</v>
@@ -14625,7 +14634,7 @@
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D45" t="n">
         <v>2.929</v>
@@ -14645,7 +14654,7 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D46" t="n">
         <v>2.043</v>
@@ -14665,7 +14674,7 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D47" t="n">
         <v>2.737</v>
@@ -14685,13 +14694,13 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D48" t="n">
         <v>3.427</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="n">
         <v>3.416</v>
@@ -14702,16 +14711,16 @@
         <v>389</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D49" t="n">
         <v>2.088</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="n">
         <v>2.088</v>
@@ -14725,7 +14734,7 @@
         <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D50" t="n">
         <v>3.133</v>
@@ -14745,7 +14754,7 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D51" t="n">
         <v>2.447</v>
@@ -14765,7 +14774,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D52" t="n">
         <v>2.354</v>
@@ -14785,7 +14794,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D53" t="n">
         <v>2.791</v>
@@ -14805,7 +14814,7 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D54" t="n">
         <v>3.178</v>
@@ -14825,7 +14834,7 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D55" t="n">
         <v>2.857</v>
@@ -14845,7 +14854,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D56" t="n">
         <v>2.491</v>
@@ -14865,7 +14874,7 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D57" t="n">
         <v>1.854</v>
@@ -14885,7 +14894,7 @@
         <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D58" t="n">
         <v>2.635</v>
@@ -14905,7 +14914,7 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D59" t="n">
         <v>3.278</v>
@@ -14925,7 +14934,7 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D60" t="n">
         <v>3.47</v>
@@ -14945,7 +14954,7 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D61" t="n">
         <v>2</v>
@@ -14965,7 +14974,7 @@
         <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D62" t="n">
         <v>1.81</v>
@@ -14982,10 +14991,10 @@
         <v>616</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D63" t="n">
         <v>2.652</v>
@@ -15005,13 +15014,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D64" t="n">
         <v>1.923</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" t="n">
         <v>1.945</v>
@@ -15025,13 +15034,13 @@
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D65" t="n">
         <v>3.378</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F65" t="n">
         <v>3.412</v>
@@ -15045,7 +15054,7 @@
         <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D66" t="n">
         <v>2.289</v>
@@ -15065,13 +15074,13 @@
         <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D67" t="n">
         <v>3.151</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" t="n">
         <v>3.157</v>
@@ -15085,7 +15094,7 @@
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D68" t="n">
         <v>3.557</v>
@@ -15105,7 +15114,7 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D69" t="n">
         <v>2.456</v>
@@ -15125,7 +15134,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D70" t="n">
         <v>3.622</v>
@@ -15145,7 +15154,7 @@
         <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D71" t="n">
         <v>3.279</v>
@@ -15165,7 +15174,7 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D72" t="n">
         <v>3.791</v>
@@ -15185,7 +15194,7 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D73" t="n">
         <v>3.937</v>
@@ -15205,7 +15214,7 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D74" t="n">
         <v>3.918</v>
@@ -15225,7 +15234,7 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D75" t="n">
         <v>3.008</v>
@@ -15245,7 +15254,7 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D76" t="n">
         <v>3.248</v>
@@ -15265,7 +15274,7 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D77" t="n">
         <v>3.918</v>
@@ -15285,7 +15294,7 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D78" t="n">
         <v>3.731</v>
@@ -15305,7 +15314,7 @@
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D79" t="n">
         <v>3.814</v>
@@ -15325,7 +15334,7 @@
         <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D80" t="n">
         <v>3.971</v>
@@ -15345,7 +15354,7 @@
         <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D81" t="n">
         <v>3.204</v>
@@ -15365,7 +15374,7 @@
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D82" t="n">
         <v>3.338</v>
@@ -15385,7 +15394,7 @@
         <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D83" t="n">
         <v>3.252</v>
@@ -15405,7 +15414,7 @@
         <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D84" t="n">
         <v>2.042</v>
@@ -15425,7 +15434,7 @@
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D85" t="n">
         <v>2.467</v>
@@ -15442,10 +15451,10 @@
         <v>739</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D86" t="n">
         <v>3.862</v>
@@ -15465,7 +15474,7 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D87" t="n">
         <v>2.61</v>
@@ -15485,7 +15494,7 @@
         <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D88" t="n">
         <v>3.491</v>
@@ -15505,7 +15514,7 @@
         <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D89" t="n">
         <v>3.781</v>
@@ -15525,7 +15534,7 @@
         <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D90" t="n">
         <v>3.421</v>
@@ -15545,7 +15554,7 @@
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D91" t="n">
         <v>3.298</v>
@@ -15565,7 +15574,7 @@
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D92" t="n">
         <v>3.439</v>
@@ -15582,10 +15591,10 @@
         <v>746</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D93" t="n">
         <v>3.813</v>
@@ -15602,10 +15611,10 @@
         <v>747</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C94" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D94" t="n">
         <v>3.246</v>
@@ -15622,10 +15631,10 @@
         <v>748</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D95" t="n">
         <v>3.977</v>
@@ -15642,10 +15651,10 @@
         <v>749</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D96" t="n">
         <v>3.458</v>
@@ -15665,7 +15674,7 @@
         <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D97" t="n">
         <v>3.859</v>
